--- a/TimeResults.xlsx
+++ b/TimeResults.xlsx
@@ -4021,16 +4021,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>34290</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4317,8 +4317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TimeResults.xlsx
+++ b/TimeResults.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="22">
   <si>
     <t>Runtime</t>
   </si>
@@ -172,7 +173,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,6 +181,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -734,11 +738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1885144240"/>
-        <c:axId val="1885143696"/>
+        <c:axId val="-1424394512"/>
+        <c:axId val="-1424388528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1885144240"/>
+        <c:axId val="-1424394512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -858,12 +862,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1885143696"/>
+        <c:crossAx val="-1424388528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1885143696"/>
+        <c:axId val="-1424388528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -976,7 +980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1885144240"/>
+        <c:crossAx val="-1424394512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1226,11 +1230,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1797150864"/>
-        <c:axId val="1797143792"/>
+        <c:axId val="-1424392880"/>
+        <c:axId val="-1424391248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1797150864"/>
+        <c:axId val="-1424392880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,12 +1347,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1797143792"/>
+        <c:crossAx val="-1424391248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1797143792"/>
+        <c:axId val="-1424391248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,7 +1465,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1797150864"/>
+        <c:crossAx val="-1424392880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1968,11 +1972,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="51662944"/>
-        <c:axId val="51670016"/>
+        <c:axId val="-1423099568"/>
+        <c:axId val="-1423107184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51662944"/>
+        <c:axId val="-1423099568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2085,12 +2089,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51670016"/>
+        <c:crossAx val="-1423107184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51670016"/>
+        <c:axId val="-1423107184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,7 +2212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51662944"/>
+        <c:crossAx val="-1423099568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2252,6 +2256,3090 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sequential Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> time vs. Number of bodies (no GUI)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>With GUI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5895999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5688</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2495999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>No GUI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$25:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3917999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3163999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-891971408"/>
+        <c:axId val="-976509968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-891971408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of bodies</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-976509968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-976509968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Exectution time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-891971408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Run</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> time vs. Number of Bodies (no GUI)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sequential</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$25:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3917999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3163999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1 thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$G$25:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$H$25:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.2799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8294000000000015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.854399999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$L$25:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$M$25:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.04E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.922999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.225800000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$Q$25:$Q$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$R$25:$R$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.573</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.051999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>8 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$V$25:$V$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$W$25:$W$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.9200000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82359999999999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.3902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.771600000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>16 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$AA$25:$AA$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$AB$25:$AB$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.32700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83100000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.8658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.320000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1546339664"/>
+        <c:axId val="-1546345648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1546339664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of bodies</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37480611093447042"/>
+              <c:y val="0.92344603005384429"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1546345648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1546345648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1546339664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> time in barrier vs. Number of threads (no GUI)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$32:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$32:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.5000000000000019E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6100000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32909999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34009999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1784343104"/>
+        <c:axId val="-1784342016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1784343104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1784342016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1784342016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average time in barrier (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1784343104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percent</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of time in barrier vs. Number of threads (no GUI)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$G$32:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$H$32:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.13596491228070176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4846962083142992E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6128146173723734E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6729122055674523E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$L$32:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$M$32:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.1507936507936505E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13482042648709316</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9022480787186685E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5956616599530433E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$Q$32:$Q$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$R$32:$R$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.6569343065693424E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19084791386271868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0691970636772321E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9680230944317998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$V$32:$V$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$W$32:$W$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.9141414141414137E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39958717824186496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7895400811301667E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4610663182037521E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>16 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$AA$32:$AA$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$AB$32:$AB$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.4801223241590214E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40926594464500593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.903637116725811E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7027101769911497E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1784353440"/>
+        <c:axId val="-1784352896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1784353440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1784352896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1784352896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Percent of time in barrier</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1784353440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sequential Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> time vs. Number of bodies (no GUI)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$25:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3917999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3163999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1024278544"/>
+        <c:axId val="-1024273648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1024278544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of bodies</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1024273648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1024273648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Exectution time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1024278544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2409,6 +5497,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3957,20 +7245,2600 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>39624</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>108204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4022,15 +9890,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>262890</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>537210</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4044,6 +9912,167 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>537210</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>39624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>270510</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>430530</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4317,8 +10346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="P59" sqref="P59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4327,41 +10356,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="O1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="T1" s="1" t="s">
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="T1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="Y1" s="1" t="s">
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="Y1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6115,4 +12144,1815 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AE34" sqref="AE34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="O1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="T1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="Y1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="1"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <f xml:space="preserve"> AVERAGE(A3:A7)</f>
+        <v>1.0199999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F3">
+        <v>2E-3</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(E3:E7)</f>
+        <v>2.2799999999999997E-2</v>
+      </c>
+      <c r="J3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <f xml:space="preserve"> AVERAGE(J3:J7)</f>
+        <v>5.04E-2</v>
+      </c>
+      <c r="O3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="P3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <f xml:space="preserve"> AVERAGE(O3:O7)</f>
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="T3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="U3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <f xml:space="preserve"> AVERAGE(T3:T7)</f>
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="Y3">
+        <v>0.315</v>
+      </c>
+      <c r="Z3">
+        <v>0.15</v>
+      </c>
+      <c r="AA3">
+        <v>50</v>
+      </c>
+      <c r="AB3">
+        <f xml:space="preserve"> AVERAGE(Y3:Y7)</f>
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.01</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F4">
+        <v>1E-3</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>0.05</v>
+      </c>
+      <c r="K4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="P4">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="U4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>0.315</v>
+      </c>
+      <c r="Z4">
+        <v>0.154</v>
+      </c>
+      <c r="AA4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.01</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F5">
+        <v>1E-3</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="P5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="U5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>0.157</v>
+      </c>
+      <c r="AA5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.01</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="P6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="U6">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Z6">
+        <v>0.185</v>
+      </c>
+      <c r="AA6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.01</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F7">
+        <v>1E-3</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="P7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="U7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="V7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>0.17</v>
+      </c>
+      <c r="AA7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.113</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C18" si="0" xml:space="preserve"> AVERAGE(A8:A12)</f>
+        <v>0.11280000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.437</v>
+      </c>
+      <c r="F8">
+        <v>1E-3</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H18" si="1">AVERAGE(E8:E12)</f>
+        <v>0.43780000000000002</v>
+      </c>
+      <c r="J8">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="K8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M18" si="2" xml:space="preserve"> AVERAGE(J8:J12)</f>
+        <v>0.71279999999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="P8">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8:R18" si="3" xml:space="preserve"> AVERAGE(O8:O12)</f>
+        <v>0.7430000000000001</v>
+      </c>
+      <c r="T8">
+        <v>0.745</v>
+      </c>
+      <c r="U8">
+        <v>0.19</v>
+      </c>
+      <c r="V8">
+        <v>100</v>
+      </c>
+      <c r="W8">
+        <f t="shared" ref="W8:W18" si="4" xml:space="preserve"> AVERAGE(T8:T12)</f>
+        <v>0.82359999999999989</v>
+      </c>
+      <c r="Y8">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="Z8">
+        <v>0.248</v>
+      </c>
+      <c r="AA8">
+        <v>100</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" ref="AB8:AB18" si="5" xml:space="preserve"> AVERAGE(Y8:Y12)</f>
+        <v>0.83100000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.113</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>0.438</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="K9">
+        <v>0.04</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="O9">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="P9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="T9">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="U9">
+        <v>0.115</v>
+      </c>
+      <c r="V9">
+        <v>100</v>
+      </c>
+      <c r="Y9">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="Z9">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AA9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.113</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>0.438</v>
+      </c>
+      <c r="F10">
+        <v>1E-3</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="K10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="O10">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="P10">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="T10">
+        <v>0.84</v>
+      </c>
+      <c r="U10">
+        <v>0.108</v>
+      </c>
+      <c r="V10">
+        <v>100</v>
+      </c>
+      <c r="Y10">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="Z10">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AA10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.112</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>0.438</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="K11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="O11">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="P11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="T11">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="U11">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="V11">
+        <v>100</v>
+      </c>
+      <c r="Y11">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="Z11">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AA11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.113</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>0.438</v>
+      </c>
+      <c r="F12">
+        <v>1E-3</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="K12">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="P12">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Q12">
+        <v>100</v>
+      </c>
+      <c r="T12">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="U12">
+        <v>0.128</v>
+      </c>
+      <c r="V12">
+        <v>100</v>
+      </c>
+      <c r="Y12">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="Z12">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="AA12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="B13">
+        <v>500</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1.3917999999999999</v>
+      </c>
+      <c r="E13">
+        <v>9.8309999999999995</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>500</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>9.8294000000000015</v>
+      </c>
+      <c r="J13">
+        <v>16.062999999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.104</v>
+      </c>
+      <c r="L13">
+        <v>500</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>13.922999999999998</v>
+      </c>
+      <c r="O13">
+        <v>17.356999999999999</v>
+      </c>
+      <c r="P13">
+        <v>0.186</v>
+      </c>
+      <c r="Q13">
+        <v>500</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>17.573</v>
+      </c>
+      <c r="T13">
+        <v>18.413</v>
+      </c>
+      <c r="U13">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="V13">
+        <v>500</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="4"/>
+        <v>18.3902</v>
+      </c>
+      <c r="Y13">
+        <v>18.224</v>
+      </c>
+      <c r="Z13">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="AA13">
+        <v>500</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="5"/>
+        <v>17.8658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1.395</v>
+      </c>
+      <c r="B14">
+        <v>500</v>
+      </c>
+      <c r="E14">
+        <v>9.8290000000000006</v>
+      </c>
+      <c r="F14">
+        <v>1E-3</v>
+      </c>
+      <c r="G14">
+        <v>500</v>
+      </c>
+      <c r="J14">
+        <v>13.182</v>
+      </c>
+      <c r="K14">
+        <v>0.221</v>
+      </c>
+      <c r="L14">
+        <v>500</v>
+      </c>
+      <c r="O14">
+        <v>17.155999999999999</v>
+      </c>
+      <c r="P14">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="Q14">
+        <v>500</v>
+      </c>
+      <c r="T14">
+        <v>18.555</v>
+      </c>
+      <c r="U14">
+        <v>0.499</v>
+      </c>
+      <c r="V14">
+        <v>500</v>
+      </c>
+      <c r="Y14">
+        <v>18.483000000000001</v>
+      </c>
+      <c r="Z14">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="AA14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1.391</v>
+      </c>
+      <c r="B15">
+        <v>500</v>
+      </c>
+      <c r="E15">
+        <v>9.8290000000000006</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>500</v>
+      </c>
+      <c r="J15">
+        <v>13.614000000000001</v>
+      </c>
+      <c r="K15">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L15">
+        <v>500</v>
+      </c>
+      <c r="O15">
+        <v>17.463999999999999</v>
+      </c>
+      <c r="P15">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q15">
+        <v>500</v>
+      </c>
+      <c r="T15">
+        <v>18.488</v>
+      </c>
+      <c r="U15">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="V15">
+        <v>500</v>
+      </c>
+      <c r="Y15">
+        <v>17.137</v>
+      </c>
+      <c r="Z15">
+        <v>0.375</v>
+      </c>
+      <c r="AA15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1.39</v>
+      </c>
+      <c r="B16">
+        <v>500</v>
+      </c>
+      <c r="E16">
+        <v>9.83</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>500</v>
+      </c>
+      <c r="J16">
+        <v>13.145</v>
+      </c>
+      <c r="K16">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="L16">
+        <v>500</v>
+      </c>
+      <c r="O16">
+        <v>17.434999999999999</v>
+      </c>
+      <c r="P16">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="Q16">
+        <v>500</v>
+      </c>
+      <c r="T16">
+        <v>18.07</v>
+      </c>
+      <c r="U16">
+        <v>0.51</v>
+      </c>
+      <c r="V16">
+        <v>500</v>
+      </c>
+      <c r="Y16">
+        <v>17.713999999999999</v>
+      </c>
+      <c r="Z16">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AA16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1.391</v>
+      </c>
+      <c r="B17">
+        <v>500</v>
+      </c>
+      <c r="E17">
+        <v>9.8279999999999994</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>500</v>
+      </c>
+      <c r="J17">
+        <v>13.611000000000001</v>
+      </c>
+      <c r="K17">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L17">
+        <v>500</v>
+      </c>
+      <c r="O17">
+        <v>18.452999999999999</v>
+      </c>
+      <c r="P17">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="Q17">
+        <v>500</v>
+      </c>
+      <c r="T17">
+        <v>18.425000000000001</v>
+      </c>
+      <c r="U17">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="V17">
+        <v>500</v>
+      </c>
+      <c r="Y17">
+        <v>17.771000000000001</v>
+      </c>
+      <c r="Z17">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="AA17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>5.3163999999999998</v>
+      </c>
+      <c r="E18">
+        <v>38.936999999999998</v>
+      </c>
+      <c r="F18">
+        <v>1E-3</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>38.854399999999998</v>
+      </c>
+      <c r="J18">
+        <v>64.412999999999997</v>
+      </c>
+      <c r="K18">
+        <v>0.115</v>
+      </c>
+      <c r="L18">
+        <v>1000</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>60.225800000000007</v>
+      </c>
+      <c r="O18">
+        <v>75.128</v>
+      </c>
+      <c r="P18">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="Q18">
+        <v>1000</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>72.051999999999992</v>
+      </c>
+      <c r="T18">
+        <v>75.221000000000004</v>
+      </c>
+      <c r="U18">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="V18">
+        <v>1000</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="4"/>
+        <v>73.771600000000007</v>
+      </c>
+      <c r="Y18">
+        <v>72.491</v>
+      </c>
+      <c r="Z18">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AA18">
+        <v>1000</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="5"/>
+        <v>72.320000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5.306</v>
+      </c>
+      <c r="B19">
+        <v>1000</v>
+      </c>
+      <c r="E19">
+        <v>38.838999999999999</v>
+      </c>
+      <c r="F19">
+        <v>1E-3</v>
+      </c>
+      <c r="G19">
+        <v>1000</v>
+      </c>
+      <c r="J19">
+        <v>67.320999999999998</v>
+      </c>
+      <c r="K19">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="L19">
+        <v>1000</v>
+      </c>
+      <c r="O19">
+        <v>73.637</v>
+      </c>
+      <c r="P19">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="Q19">
+        <v>1000</v>
+      </c>
+      <c r="T19">
+        <v>73.513000000000005</v>
+      </c>
+      <c r="U19">
+        <v>0.318</v>
+      </c>
+      <c r="V19">
+        <v>1000</v>
+      </c>
+      <c r="Y19">
+        <v>73.876999999999995</v>
+      </c>
+      <c r="Z19">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AA19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5.3239999999999998</v>
+      </c>
+      <c r="B20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <v>38.831000000000003</v>
+      </c>
+      <c r="F20">
+        <v>2E-3</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+      <c r="J20">
+        <v>59.609000000000002</v>
+      </c>
+      <c r="K20">
+        <v>0.151</v>
+      </c>
+      <c r="L20">
+        <v>1000</v>
+      </c>
+      <c r="O20">
+        <v>73.055999999999997</v>
+      </c>
+      <c r="P20">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="Q20">
+        <v>1000</v>
+      </c>
+      <c r="T20">
+        <v>72.594999999999999</v>
+      </c>
+      <c r="U20">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="V20">
+        <v>1000</v>
+      </c>
+      <c r="Y20">
+        <v>70.275999999999996</v>
+      </c>
+      <c r="Z20">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="AA20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5.3010000000000002</v>
+      </c>
+      <c r="B21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>38.838999999999999</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+      <c r="J21">
+        <v>55.453000000000003</v>
+      </c>
+      <c r="K21">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L21">
+        <v>1000</v>
+      </c>
+      <c r="O21">
+        <v>69.802000000000007</v>
+      </c>
+      <c r="P21">
+        <v>0.128</v>
+      </c>
+      <c r="Q21">
+        <v>1000</v>
+      </c>
+      <c r="T21">
+        <v>74.153000000000006</v>
+      </c>
+      <c r="U21">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="V21">
+        <v>1000</v>
+      </c>
+      <c r="Y21">
+        <v>72.498000000000005</v>
+      </c>
+      <c r="Z21">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="AA21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5.3259999999999996</v>
+      </c>
+      <c r="B22">
+        <v>1000</v>
+      </c>
+      <c r="E22">
+        <v>38.826000000000001</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1000</v>
+      </c>
+      <c r="J22">
+        <v>54.332999999999998</v>
+      </c>
+      <c r="K22">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="L22">
+        <v>1000</v>
+      </c>
+      <c r="O22">
+        <v>68.637</v>
+      </c>
+      <c r="P22">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="Q22">
+        <v>1000</v>
+      </c>
+      <c r="T22">
+        <v>73.376000000000005</v>
+      </c>
+      <c r="U22">
+        <v>0.85</v>
+      </c>
+      <c r="V22">
+        <v>1000</v>
+      </c>
+      <c r="Y22">
+        <v>72.457999999999998</v>
+      </c>
+      <c r="Z22">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="AA22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f>B3</f>
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <f>C3</f>
+        <v>1.0199999999999999E-2</v>
+      </c>
+      <c r="G25">
+        <f>G3</f>
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <f>H3</f>
+        <v>2.2799999999999997E-2</v>
+      </c>
+      <c r="L25">
+        <f>L3</f>
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <f>M3</f>
+        <v>5.04E-2</v>
+      </c>
+      <c r="Q25">
+        <f>Q3</f>
+        <v>10</v>
+      </c>
+      <c r="R25">
+        <f>R3</f>
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="V25">
+        <f>V3</f>
+        <v>10</v>
+      </c>
+      <c r="W25">
+        <f>W3</f>
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AA25">
+        <f>AA3</f>
+        <v>50</v>
+      </c>
+      <c r="AB25">
+        <f>AB3</f>
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f>B8</f>
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <f>C8</f>
+        <v>0.11280000000000001</v>
+      </c>
+      <c r="G26">
+        <f>G8</f>
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <f>H8</f>
+        <v>0.43780000000000002</v>
+      </c>
+      <c r="L26">
+        <f>L8</f>
+        <v>100</v>
+      </c>
+      <c r="M26">
+        <f>M8</f>
+        <v>0.71279999999999999</v>
+      </c>
+      <c r="Q26">
+        <f>Q8</f>
+        <v>100</v>
+      </c>
+      <c r="R26">
+        <f>R8</f>
+        <v>0.7430000000000001</v>
+      </c>
+      <c r="V26">
+        <f>V8</f>
+        <v>100</v>
+      </c>
+      <c r="W26">
+        <f>W8</f>
+        <v>0.82359999999999989</v>
+      </c>
+      <c r="AA26">
+        <f>AA8</f>
+        <v>100</v>
+      </c>
+      <c r="AB26">
+        <f>AB8</f>
+        <v>0.83100000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f>B13</f>
+        <v>500</v>
+      </c>
+      <c r="C27">
+        <f>C13</f>
+        <v>1.3917999999999999</v>
+      </c>
+      <c r="G27">
+        <f>G13</f>
+        <v>500</v>
+      </c>
+      <c r="H27">
+        <f>H13</f>
+        <v>9.8294000000000015</v>
+      </c>
+      <c r="L27">
+        <f>L13</f>
+        <v>500</v>
+      </c>
+      <c r="M27">
+        <f>M13</f>
+        <v>13.922999999999998</v>
+      </c>
+      <c r="Q27">
+        <f>Q13</f>
+        <v>500</v>
+      </c>
+      <c r="R27">
+        <f>R13</f>
+        <v>17.573</v>
+      </c>
+      <c r="V27">
+        <f>V13</f>
+        <v>500</v>
+      </c>
+      <c r="W27">
+        <f>W13</f>
+        <v>18.3902</v>
+      </c>
+      <c r="AA27">
+        <f>AA13</f>
+        <v>500</v>
+      </c>
+      <c r="AB27">
+        <f>AB13</f>
+        <v>17.8658</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f>B18</f>
+        <v>1000</v>
+      </c>
+      <c r="C28">
+        <f>C18</f>
+        <v>5.3163999999999998</v>
+      </c>
+      <c r="G28">
+        <f>G18</f>
+        <v>1000</v>
+      </c>
+      <c r="H28">
+        <f>H18</f>
+        <v>38.854399999999998</v>
+      </c>
+      <c r="L28">
+        <f>L18</f>
+        <v>1000</v>
+      </c>
+      <c r="M28">
+        <f>M18</f>
+        <v>60.225800000000007</v>
+      </c>
+      <c r="Q28">
+        <f>Q18</f>
+        <v>1000</v>
+      </c>
+      <c r="R28">
+        <f>R18</f>
+        <v>72.051999999999992</v>
+      </c>
+      <c r="V28">
+        <f>V18</f>
+        <v>1000</v>
+      </c>
+      <c r="W28">
+        <f>W18</f>
+        <v>73.771600000000007</v>
+      </c>
+      <c r="AA28">
+        <f>AA18</f>
+        <v>1000</v>
+      </c>
+      <c r="AB28">
+        <f>AB18</f>
+        <v>72.320000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <f xml:space="preserve"> AVERAGE(F3:F22)</f>
+        <v>6.5000000000000019E-4</v>
+      </c>
+      <c r="L31" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31">
+        <f xml:space="preserve"> AVERAGE(K3:K22)</f>
+        <v>9.6100000000000005E-2</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31">
+        <f xml:space="preserve"> AVERAGE(P3:P22)</f>
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="V31" t="s">
+        <v>18</v>
+      </c>
+      <c r="W31">
+        <f xml:space="preserve"> AVERAGE(U3:U22)</f>
+        <v>0.32909999999999995</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB31">
+        <f xml:space="preserve"> AVERAGE(Z3:Z22)</f>
+        <v>0.34009999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f>H31</f>
+        <v>6.5000000000000019E-4</v>
+      </c>
+      <c r="G32">
+        <f>G25</f>
+        <v>10</v>
+      </c>
+      <c r="H32" s="3">
+        <f>0.0031/H3</f>
+        <v>0.13596491228070176</v>
+      </c>
+      <c r="L32">
+        <f>L25</f>
+        <v>10</v>
+      </c>
+      <c r="M32" s="3">
+        <f>0.0031/M3</f>
+        <v>6.1507936507936505E-2</v>
+      </c>
+      <c r="Q32">
+        <f>Q25</f>
+        <v>10</v>
+      </c>
+      <c r="R32" s="3">
+        <f>0.0031/R3</f>
+        <v>5.6569343065693424E-2</v>
+      </c>
+      <c r="V32">
+        <f>V25</f>
+        <v>10</v>
+      </c>
+      <c r="W32" s="3">
+        <f>0.0031/W3</f>
+        <v>3.9141414141414137E-2</v>
+      </c>
+      <c r="AA32">
+        <f>AA25</f>
+        <v>50</v>
+      </c>
+      <c r="AB32" s="3">
+        <f>0.0031/AB3</f>
+        <v>9.4801223241590214E-3</v>
+      </c>
+      <c r="AC32" s="3"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <f>M31</f>
+        <v>9.6100000000000005E-2</v>
+      </c>
+      <c r="G33">
+        <f>G26</f>
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
+        <f>H31/H8</f>
+        <v>1.4846962083142992E-3</v>
+      </c>
+      <c r="L33">
+        <f>L26</f>
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
+        <f>M31/M8</f>
+        <v>0.13482042648709316</v>
+      </c>
+      <c r="Q33">
+        <f>Q26</f>
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
+        <f>R31/R8</f>
+        <v>0.19084791386271868</v>
+      </c>
+      <c r="V33">
+        <f>V26</f>
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
+        <f>W31/W8</f>
+        <v>0.39958717824186496</v>
+      </c>
+      <c r="AA33">
+        <f>AA26</f>
+        <v>100</v>
+      </c>
+      <c r="AB33" s="3">
+        <f>AB31/AB8</f>
+        <v>0.40926594464500593</v>
+      </c>
+      <c r="AC33" s="3"/>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <f>R31</f>
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="G34">
+        <f>G27</f>
+        <v>500</v>
+      </c>
+      <c r="H34" s="3">
+        <f>H31/H13</f>
+        <v>6.6128146173723734E-5</v>
+      </c>
+      <c r="L34">
+        <f>L27</f>
+        <v>500</v>
+      </c>
+      <c r="M34" s="3">
+        <f>M31/M13</f>
+        <v>6.9022480787186685E-3</v>
+      </c>
+      <c r="Q34">
+        <f>Q27</f>
+        <v>500</v>
+      </c>
+      <c r="R34" s="3">
+        <f>R31/R13</f>
+        <v>8.0691970636772321E-3</v>
+      </c>
+      <c r="V34">
+        <f>V27</f>
+        <v>500</v>
+      </c>
+      <c r="W34" s="3">
+        <f>W31/W13</f>
+        <v>1.7895400811301667E-2</v>
+      </c>
+      <c r="AA34">
+        <f>AA27</f>
+        <v>500</v>
+      </c>
+      <c r="AB34" s="3">
+        <f>AB31/AB13</f>
+        <v>1.903637116725811E-2</v>
+      </c>
+      <c r="AC34" s="3"/>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <f>W31</f>
+        <v>0.32909999999999995</v>
+      </c>
+      <c r="G35">
+        <f>G28</f>
+        <v>1000</v>
+      </c>
+      <c r="H35" s="3">
+        <f>H31/H18</f>
+        <v>1.6729122055674523E-5</v>
+      </c>
+      <c r="L35">
+        <f>L28</f>
+        <v>1000</v>
+      </c>
+      <c r="M35" s="3">
+        <f>M31/M18</f>
+        <v>1.5956616599530433E-3</v>
+      </c>
+      <c r="Q35">
+        <f>Q28</f>
+        <v>1000</v>
+      </c>
+      <c r="R35" s="3">
+        <f>R31/R18</f>
+        <v>1.9680230944317998E-3</v>
+      </c>
+      <c r="V35">
+        <f>V28</f>
+        <v>1000</v>
+      </c>
+      <c r="W35" s="3">
+        <f>W31/W18</f>
+        <v>4.4610663182037521E-3</v>
+      </c>
+      <c r="AA35">
+        <f>AA28</f>
+        <v>1000</v>
+      </c>
+      <c r="AB35" s="3">
+        <f>AB31/AB18</f>
+        <v>4.7027101769911497E-3</v>
+      </c>
+      <c r="AC35" s="3"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <f>AB31</f>
+        <v>0.34009999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="Y1:AB1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/TimeResults.xlsx
+++ b/TimeResults.xlsx
@@ -738,11 +738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1424394512"/>
-        <c:axId val="-1424388528"/>
+        <c:axId val="221688128"/>
+        <c:axId val="221685952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1424394512"/>
+        <c:axId val="221688128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,12 +862,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1424388528"/>
+        <c:crossAx val="221685952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1424388528"/>
+        <c:axId val="221685952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,7 +980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1424394512"/>
+        <c:crossAx val="221688128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1230,11 +1230,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1424392880"/>
-        <c:axId val="-1424391248"/>
+        <c:axId val="221689760"/>
+        <c:axId val="23707712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1424392880"/>
+        <c:axId val="221689760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,12 +1347,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1424391248"/>
+        <c:crossAx val="23707712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1424391248"/>
+        <c:axId val="23707712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,7 +1465,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1424392880"/>
+        <c:crossAx val="221689760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1972,11 +1972,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1423099568"/>
-        <c:axId val="-1423107184"/>
+        <c:axId val="23706624"/>
+        <c:axId val="23703904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1423099568"/>
+        <c:axId val="23706624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,12 +2089,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1423107184"/>
+        <c:crossAx val="23703904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1423107184"/>
+        <c:axId val="23703904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2212,7 +2212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1423099568"/>
+        <c:crossAx val="23706624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2338,7 +2338,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2530,11 +2529,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-891971408"/>
-        <c:axId val="-976509968"/>
+        <c:axId val="285988128"/>
+        <c:axId val="285987584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-891971408"/>
+        <c:axId val="285988128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2580,7 +2579,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2647,12 +2645,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-976509968"/>
+        <c:crossAx val="285987584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-976509968"/>
+        <c:axId val="285987584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +2696,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2765,7 +2762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-891971408"/>
+        <c:crossAx val="285988128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2779,7 +2776,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2890,7 +2886,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3378,11 +3373,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1546339664"/>
-        <c:axId val="-1546345648"/>
+        <c:axId val="285985952"/>
+        <c:axId val="285986496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1546339664"/>
+        <c:axId val="285985952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3502,12 +3497,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1546345648"/>
+        <c:crossAx val="285986496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1546345648"/>
+        <c:axId val="285986496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3553,7 +3548,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3620,7 +3614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1546339664"/>
+        <c:crossAx val="285985952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3634,7 +3628,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3749,7 +3742,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3870,11 +3862,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1784343104"/>
-        <c:axId val="-1784342016"/>
+        <c:axId val="285983232"/>
+        <c:axId val="285987040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1784343104"/>
+        <c:axId val="285983232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3920,7 +3912,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3987,12 +3978,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1784342016"/>
+        <c:crossAx val="285987040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1784342016"/>
+        <c:axId val="285987040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4038,7 +4029,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4105,7 +4095,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1784343104"/>
+        <c:crossAx val="285983232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4198,7 +4188,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4612,11 +4601,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1784353440"/>
-        <c:axId val="-1784352896"/>
+        <c:axId val="285984864"/>
+        <c:axId val="285985408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1784353440"/>
+        <c:axId val="285984864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4662,7 +4651,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4729,12 +4717,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1784352896"/>
+        <c:crossAx val="285985408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1784352896"/>
+        <c:axId val="285985408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4785,7 +4773,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4852,7 +4839,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1784353440"/>
+        <c:crossAx val="285984864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4866,7 +4853,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4978,7 +4964,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5093,11 +5078,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1024278544"/>
-        <c:axId val="-1024273648"/>
+        <c:axId val="292068944"/>
+        <c:axId val="292064048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1024278544"/>
+        <c:axId val="292068944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5143,7 +5128,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5210,12 +5194,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1024273648"/>
+        <c:crossAx val="292064048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1024273648"/>
+        <c:axId val="292064048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5261,7 +5245,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5328,7 +5311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1024278544"/>
+        <c:crossAx val="292068944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10347,7 +10330,7 @@
   <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="P59" sqref="P59"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13944,12 +13927,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="T1:W1"/>
-    <mergeCell ref="Y1:AB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
